--- a/document/【ファイルサーバ課題】画面一覧・画面遷移図.xlsx
+++ b/document/【ファイルサーバ課題】画面一覧・画面遷移図.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F48D33C-62CC-471D-900F-DB984132A25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5B494-9C73-4C96-8B5B-DDAD325031D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{33980DD7-076D-435C-8F92-9B20D7ED1BBE}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="23550" windowHeight="10305" xr2:uid="{33980DD7-076D-435C-8F92-9B20D7ED1BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -129,9 +129,6 @@
     <t>fs-02-01</t>
   </si>
   <si>
-    <t>fs-02-02</t>
-  </si>
-  <si>
     <t>フォルダ・ファイルの一覧表示</t>
   </si>
   <si>
@@ -142,34 +139,6 @@
   </si>
   <si>
     <t>fileView.html</t>
-  </si>
-  <si>
-    <t>ログイン時のID情報で権限を識別し、ファイルサーバー画面での機能を制限する</t>
-  </si>
-  <si>
-    <t>ID: メールアドレス形式
-いずれの入力項目も入力必須チェック</t>
-  </si>
-  <si>
-    <t>ID(一意)・ユーザーネーム・パスワードを自由に設定してアカウントを作成する画面</t>
-  </si>
-  <si>
-    <t>ファイルサーバーにログインする画面</t>
-  </si>
-  <si>
-    <t>自分のユーザーネームとパスワードを変更できる画面</t>
-  </si>
-  <si>
-    <t>RW権限/R権限の切り替えができ、ユーザーの削除ができる画面</t>
-  </si>
-  <si>
-    <t>ファイルサーバー上のファイルを一覧でき、ファイルのダウンロードとアップロードができる画面</t>
-  </si>
-  <si>
-    <t>アップロードはRW権限のみ可能</t>
-  </si>
-  <si>
-    <t>マスタ権限のみアクセス可能</t>
   </si>
   <si>
     <t>作成者</t>
@@ -197,23 +166,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー登録画面と同じhtmlで、アクセス元のパラメータにより、ログイン中であれば自ユーザー情報更新画面に遷移</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー登録画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー管理画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイルサーバー表示画面</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -236,23 +189,6 @@
   <si>
     <t>フォルダ・ファイルの一覧表示機能</t>
     <rPh sb="14" eb="16">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー情報登録・更新機能</t>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>権限変更機能、ユーザー削除機能</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
       <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -297,14 +233,6 @@
   </si>
   <si>
     <t>fs-01-01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fs-03-01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fs-04-01</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -393,6 +321,233 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ユーザ管理画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報更新画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルサーバ画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限変更機能、ユーザ削除機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID(一意)・ユーザー名・パスワードを自由に設定してアカウントを作成する画面</t>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルサーバにログインする画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン時のID情報で権限を識別し、ファイルサーバ画面での機能を制限する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分のユーザ名とパスワードを変更できる画面</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面一覧</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報登録機能</t>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報更新機能</t>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザIDを除くユーザ名とパスワードを変更可能</t>
+    <rPh sb="6" eb="7">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ヘンコウカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新者/閲覧者の権限切り替えができ、ユーザの削除ができる画面</t>
+    <rPh sb="8" eb="10">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタのみアクセス可能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップロードはマスタと更新者のみ可能</t>
+    <rPh sb="11" eb="14">
+      <t>コウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fs-05-n(n &lt;= 259)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fs-05-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fs-03-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fs-05-002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fs-02-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fs-01-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fs-04-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新履歴No.3同様の表記ゆれの統一
+各画面に画面IDの表記</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カクガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・カタカナ語の最後の伸ばし削除
+・表記ゆれを統一
+　「ユーザネーム」→「ユーザ名」
+　「ファイルサーバー表示画面」→「ファイルサーバ画面」
+　「RW権限/R権限」→「更新者/閲覧者」
+・ログイン画面とユーザ情報更新画面の分割→画面IDの変更</t>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="52" eb="56">
+      <t>ヒョウジガメン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="83" eb="86">
+      <t>コウシンシャ</t>
+    </rPh>
+    <rPh sb="87" eb="90">
+      <t>エツランシャ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="105" eb="109">
+      <t>コウシンガメン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID: メールアドレス形式
+いずれの入力項目も入力必須チェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルサーバ上のファイルを一覧表示でき、ファイルのダウンロードとアップロードができる画面</t>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -436,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -564,20 +719,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -601,6 +764,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -611,7 +795,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -637,11 +824,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,6 +846,61 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28773</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>4659</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77436E3F-AB07-4B3E-834E-9A19C3E481C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12532500" y="6869454"/>
+          <a:ext cx="7868029" cy="4560546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
@@ -731,6 +970,171 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>46722</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>60575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>46722</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>93480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74BA4AE-BA5C-4E09-A417-7E8DF773A246}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3337177" y="14122939"/>
+          <a:ext cx="7897090" cy="4639542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99309</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>74196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99309</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>116625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9726600A-8312-4C36-91D2-1DC6069B97C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3433059" y="21743571"/>
+          <a:ext cx="8001000" cy="4566804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>359710</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>359711</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>74342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40D0B6C-0352-4C67-938C-943E836DA53D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3650165" y="2454776"/>
+          <a:ext cx="7897091" cy="4639541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -799,305 +1203,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>140476</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>58152</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>140476</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>96252</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="図 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA52FB3-B18F-48D0-9E48-963C7F73AC39}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12808726" y="6725652"/>
-          <a:ext cx="8001000" cy="4562475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>547613</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>216478</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>547613</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85650</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="グループ化 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D79542-8E2F-4D7D-B1DA-D7168BB7D43B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3786113" y="1816678"/>
-          <a:ext cx="7772400" cy="4898372"/>
-          <a:chOff x="12668176" y="1626178"/>
-          <a:chExt cx="7772400" cy="4898372"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="83" name="図 82">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375AC5DC-39A3-4EAF-AE08-763DF4943DD2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12668176" y="2152575"/>
-            <a:ext cx="7772400" cy="4371975"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="テキスト ボックス 49">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E21A6A-B780-4AF8-85AC-953D2E7FD691}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="18216005" y="1626178"/>
-            <a:ext cx="2159269" cy="666872"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>開始ページ</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>635702</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>101566</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>635702</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>126111</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="図 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BA2110-9423-48DF-995E-2C41119EEEB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="29305952" y="21770941"/>
-          <a:ext cx="8001000" cy="4548920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>242888</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>153084</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>242888</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="図 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA9A7D9-57D9-4C32-9C7A-10952E0B9B20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18245138" y="21822459"/>
-          <a:ext cx="8001000" cy="4547503"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1789,7 +1894,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ユーザー情報変更ボタン</a:t>
+            <a:t>ユーザ情報変更ボタン</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
@@ -1871,7 +1976,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ユーザー管理ボタン</a:t>
+            <a:t>ユーザ管理ボタン</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
@@ -1879,7 +1984,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>クリック時</a:t>
+            <a:t>クリック</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2194,7 +2299,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>登録できた場合</a:t>
+            <a:t>登録完了の場合</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2204,15 +2309,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>217534</xdr:colOff>
+      <xdr:colOff>86591</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>4327</xdr:rowOff>
+      <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>132689</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>225135</xdr:rowOff>
+      <xdr:colOff>357826</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2227,8 +2332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24220534" y="27150577"/>
-          <a:ext cx="1915405" cy="1173308"/>
+          <a:off x="23777864" y="27778364"/>
+          <a:ext cx="2245507" cy="1091045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2308,7 +2413,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ファイルサーバーボタン</a:t>
+            <a:t>ファイルサーバボタン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>クリック</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
             <a:effectLst/>
@@ -2546,7 +2663,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ユーザー情報変更ボタン</a:t>
+            <a:t>ユーザ情報変更ボタン</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
@@ -2554,7 +2671,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>クリック時</a:t>
+            <a:t>クリック</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2628,7 +2745,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ユーザー管理ボタン</a:t>
+            <a:t>ユーザ管理ボタン</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
@@ -2636,7 +2753,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>クリック時</a:t>
+            <a:t>クリック</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2666,7 +2783,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="77" idx="0"/>
+          <a:cxnSpLocks/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2701,13 +2818,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>267260</xdr:colOff>
+      <xdr:colOff>267259</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>197504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>182415</xdr:colOff>
+      <xdr:colOff>623453</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>204709</xdr:rowOff>
     </xdr:to>
@@ -2724,8 +2841,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15602510" y="5674379"/>
-          <a:ext cx="1915405" cy="483455"/>
+          <a:off x="15403350" y="5773959"/>
+          <a:ext cx="2330467" cy="492114"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2765,7 +2882,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>戻る場合</a:t>
+            <a:t>戻るボタンクリック</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2906,9 +3023,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541998</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>149925</xdr:rowOff>
+      <xdr:colOff>543541</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -2929,8 +3046,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6542748" y="26105550"/>
-          <a:ext cx="13736" cy="2231325"/>
+          <a:off x="6421827" y="27105429"/>
+          <a:ext cx="12193" cy="2041071"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3023,7 +3140,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ファイルサーバーボタン</a:t>
+            <a:t>ファイルサーバボタン</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
@@ -3105,7 +3222,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ファイルサーバーボタン</a:t>
+            <a:t>ファイルサーバボタン</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
@@ -3118,171 +3235,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>83127</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>200891</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>83127</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>866</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="123" name="図 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD97F98-DEAF-4ACF-834E-26782E398085}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3373582" y="14020800"/>
-          <a:ext cx="7897090" cy="4635211"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>70336</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>53019</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>70337</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>95449</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="125" name="図 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BB1608-9D70-4E57-9044-F77F497CC24B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3360791" y="22116383"/>
-          <a:ext cx="7897091" cy="4649066"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="126" name="図 125">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6ED706C-EBDB-4040-BEED-763198562F77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23583900" y="29127450"/>
-          <a:ext cx="8001000" cy="4552950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3481,8 +3433,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
       <xdr:row>119</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
@@ -3505,8 +3457,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4824412" y="28408312"/>
-          <a:ext cx="4057650" cy="4333875"/>
+          <a:off x="4503964" y="29217937"/>
+          <a:ext cx="4201205" cy="4456339"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3633,7 +3585,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="125" idx="3"/>
+          <a:cxnSpLocks/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3729,7 +3681,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ファイルサーバーボタン</a:t>
+            <a:t>ファイルサーバボタン</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
@@ -3858,6 +3810,249 @@
             </a:rPr>
             <a:t>マスタのみアクセス可能</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>254540</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>145002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>254540</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>173577</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="図 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52EE1AD-BD34-4C3F-A140-43BC54D80C81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23590790" y="29196252"/>
+          <a:ext cx="8001000" cy="4552951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>162560</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>213015</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A8DC1D8-8E56-4748-BE0A-FFE97099AAA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17931015" y="22219227"/>
+          <a:ext cx="7947545" cy="4606636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>649988</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>111825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>649988</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>140400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6143CA-7A7E-4C9B-A0C5-092F5EED1230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29320238" y="21781200"/>
+          <a:ext cx="8001000" cy="4552950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3D9C0B-19F4-4F47-B0BA-333C04674589}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29079265" y="21268765"/>
+          <a:ext cx="1053353" cy="246529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>fs-04-001</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7276,234 +7471,250 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3742B98-D101-41F6-B55A-DC7900B0DB1B}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.25" customWidth="1"/>
     <col min="5" max="5" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>61</v>
+      <c r="A2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3">
         <v>44175</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>62</v>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <f t="shared" ref="A4:A20" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3">
         <v>44175</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>66</v>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="8"/>
+      <c r="B5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="11">
+        <v>44176</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="3">
+    <row r="6" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="11">
+        <v>44176</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <f>ROW(A10)</f>
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="8"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7516,8 +7727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647C4397-7289-41CA-9955-69C50B398DFD}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:S8"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7526,471 +7737,493 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="23">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="20">
         <v>44175</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="A3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4" s="23">
-        <v>44175</v>
-      </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="20">
+        <v>44176</v>
+      </c>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="16" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="12" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12" t="s">
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12" t="s">
+      <c r="O6" s="18"/>
+      <c r="P6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12" t="s">
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="9" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+      <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
+      <c r="I8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
+      <c r="A9" s="9">
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
+      <c r="E9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
+      <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
+      <c r="E10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
+      <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="E11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
+      <c r="I11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
+      <c r="A12" s="9">
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13" t="s">
+      <c r="E12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
+      <c r="G12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="N9:O10"/>
-    <mergeCell ref="P9:S9"/>
+  <mergeCells count="49">
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A3:O4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="T11:W11"/>
     <mergeCell ref="T12:W12"/>
     <mergeCell ref="P1:S1"/>
@@ -8007,30 +8240,14 @@
     <mergeCell ref="T6:W7"/>
     <mergeCell ref="P8:S8"/>
     <mergeCell ref="P6:S7"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A3:O4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="N6:O7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8040,41 +8257,255 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771930D8-6339-4FE5-857F-6AD157A4091C}">
-  <dimension ref="E7:V19"/>
+  <dimension ref="D7:AL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="BP78" sqref="BP78"/>
+    <sheetView topLeftCell="A20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="8.625" style="14"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="21:22" x14ac:dyDescent="0.4">
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
+    <row r="7" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
     </row>
-    <row r="8" spans="21:22" x14ac:dyDescent="0.4">
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
+    <row r="8" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
     </row>
-    <row r="9" spans="21:22" x14ac:dyDescent="0.4">
-      <c r="U9" s="6"/>
-      <c r="V9" s="5"/>
+    <row r="9" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
     </row>
-    <row r="10" spans="21:22" x14ac:dyDescent="0.4">
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
+    <row r="10" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+    <row r="11" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
+    <row r="12" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+    <row r="17" spans="5:22" x14ac:dyDescent="0.4">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="5:22" x14ac:dyDescent="0.4">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="5:22" x14ac:dyDescent="0.4">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="27" spans="5:22" x14ac:dyDescent="0.4">
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+    </row>
+    <row r="28" spans="5:22" x14ac:dyDescent="0.4">
+      <c r="T28" s="13"/>
+      <c r="U28" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="V28" s="13"/>
+    </row>
+    <row r="29" spans="5:22" x14ac:dyDescent="0.4">
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+    </row>
+    <row r="30" spans="5:22" x14ac:dyDescent="0.4">
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+    </row>
+    <row r="31" spans="5:22" x14ac:dyDescent="0.4">
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+    </row>
+    <row r="33" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="34" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="35" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="36" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="37" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="38" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="39" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="40" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="41" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="42" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="43" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="44" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="45" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="46" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="47" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="48" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F58" s="13"/>
+      <c r="G58" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+    </row>
+    <row r="65" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="66" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="67" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="68" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="69" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="70" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="71" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="72" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="73" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="74" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="75" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="76" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="77" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="78" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="79" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="80" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="89" spans="4:30" x14ac:dyDescent="0.4">
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="AB89" s="13"/>
+      <c r="AC89" s="13"/>
+      <c r="AD89" s="13"/>
+    </row>
+    <row r="90" spans="4:30" x14ac:dyDescent="0.4">
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="AB90" s="13"/>
+      <c r="AC90" s="13"/>
+      <c r="AD90" s="13"/>
+    </row>
+    <row r="91" spans="4:30" x14ac:dyDescent="0.4">
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H91" s="13"/>
+      <c r="AB91" s="13"/>
+      <c r="AC91" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD91" s="13"/>
+    </row>
+    <row r="92" spans="4:30" x14ac:dyDescent="0.4">
+      <c r="AB92" s="13"/>
+      <c r="AC92" s="13"/>
+      <c r="AD92" s="13"/>
+    </row>
+    <row r="93" spans="4:30" x14ac:dyDescent="0.4">
+      <c r="AB93" s="13"/>
+      <c r="AC93" s="13"/>
+      <c r="AD93" s="13"/>
+    </row>
+    <row r="94" spans="4:30" x14ac:dyDescent="0.4">
+      <c r="AB94" s="13"/>
+      <c r="AC94" s="13"/>
+      <c r="AD94" s="13"/>
+    </row>
+    <row r="97" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="98" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="99" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="100" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="101" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="102" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="103" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="104" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="105" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="106" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="107" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="108" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="109" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="110" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="111" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="112" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="118" spans="7:38" x14ac:dyDescent="0.4">
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+    </row>
+    <row r="119" spans="7:38" x14ac:dyDescent="0.4">
+      <c r="G119" s="13"/>
+      <c r="H119" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I119" s="13"/>
+    </row>
+    <row r="120" spans="7:38" x14ac:dyDescent="0.4">
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+    </row>
+    <row r="122" spans="7:38" x14ac:dyDescent="0.4">
+      <c r="AJ122" s="13"/>
+      <c r="AK122" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL122" s="13"/>
+    </row>
+    <row r="123" spans="7:38" x14ac:dyDescent="0.4">
+      <c r="AJ123" s="13"/>
+      <c r="AK123" s="13"/>
+      <c r="AL123" s="13"/>
+    </row>
+    <row r="124" spans="7:38" x14ac:dyDescent="0.4">
+      <c r="AJ124" s="13"/>
+      <c r="AK124" s="13"/>
+      <c r="AL124" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8095,36 +8526,36 @@
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="7" spans="21:22" x14ac:dyDescent="0.4">
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
     </row>
     <row r="8" spans="21:22" x14ac:dyDescent="0.4">
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
     </row>
     <row r="9" spans="21:22" x14ac:dyDescent="0.4">
-      <c r="U9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="V9" s="5"/>
+      <c r="U9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="4"/>
     </row>
     <row r="10" spans="21:22" x14ac:dyDescent="0.4">
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/document/【ファイルサーバ課題】画面一覧・画面遷移図.xlsx
+++ b/document/【ファイルサーバ課題】画面一覧・画面遷移図.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5B494-9C73-4C96-8B5B-DDAD325031D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70466460-E8CC-4F4D-A0F8-AA01B51239B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="23550" windowHeight="10305" xr2:uid="{33980DD7-076D-435C-8F92-9B20D7ED1BBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{33980DD7-076D-435C-8F92-9B20D7ED1BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="8" r:id="rId1"/>
@@ -395,19 +395,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザIDを除くユーザ名とパスワードを変更可能</t>
-    <rPh sb="6" eb="7">
-      <t>ノゾ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>ヘンコウカノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新者/閲覧者の権限切り替えができ、ユーザの削除ができる画面</t>
     <rPh sb="8" eb="10">
       <t>ケンゲン</t>
@@ -451,35 +438,6 @@
   </si>
   <si>
     <t>fs-04-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新履歴No.3同様の表記ゆれの統一
-各画面に画面IDの表記</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トウイツ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>カクガメン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウキ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -545,6 +503,71 @@
     <t>ファイルサーバ上のファイルを一覧表示でき、ファイルのダウンロードとアップロードができる画面</t>
     <rPh sb="16" eb="18">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザIDを除くユーザ名とパスワードを更新可能</t>
+    <rPh sb="6" eb="7">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・更新履歴No.3同様の表記ゆれの統一
+・各画面に画面IDの表記
+・ユーザ情報更新画面のレイアウト変更
+→ユーザ名とパスワードを分割して更新できる仕様とするため</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>カクガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="37" eb="43">
+      <t>ジョウホウコウシンガメン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -848,23 +871,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>28773</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>80727</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>4659</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101509</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>18381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101510</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>60811</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77436E3F-AB07-4B3E-834E-9A19C3E481C0}"/>
+        <xdr:cNvPr id="66" name="図 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C394B4-B2F6-481A-A86D-D7431E43DAC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -886,15 +909,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12532500" y="6869454"/>
-          <a:ext cx="7868029" cy="4560546"/>
+          <a:off x="3391964" y="14080745"/>
+          <a:ext cx="7897091" cy="4649066"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -972,23 +995,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>46722</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>60575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>46722</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>93480</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>263237</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>128155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>263238</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>156730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74BA4AE-BA5C-4E09-A417-7E8DF773A246}"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619583C3-3FDF-4600-AFB5-93CB6625C9E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,15 +1033,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3337177" y="14122939"/>
-          <a:ext cx="7897090" cy="4639542"/>
+          <a:off x="18031692" y="22191519"/>
+          <a:ext cx="7897091" cy="4635211"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1027,23 +1050,78 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>190821</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>13928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>190821</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>42503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AC177F-9001-4150-88C5-2926C67D335C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23050821" y="29895214"/>
+          <a:ext cx="7837714" cy="4682218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>99309</xdr:colOff>
+      <xdr:colOff>9054</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>74196</xdr:rowOff>
+      <xdr:rowOff>109499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>99309</xdr:colOff>
+      <xdr:colOff>9055</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>116625</xdr:rowOff>
+      <xdr:rowOff>138075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9726600A-8312-4C36-91D2-1DC6069B97C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637AFFC2-CB2B-468E-AA35-ABE1A5985FC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1065,15 +1143,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3433059" y="21743571"/>
-          <a:ext cx="8001000" cy="4566804"/>
+          <a:off x="3299509" y="22172863"/>
+          <a:ext cx="7897091" cy="4635212"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1083,22 +1161,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>359710</xdr:colOff>
+      <xdr:colOff>349554</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>30231</xdr:rowOff>
+      <xdr:rowOff>72463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>359711</xdr:colOff>
+      <xdr:colOff>349555</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>74342</xdr:rowOff>
+      <xdr:rowOff>101038</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40D0B6C-0352-4C67-938C-943E836DA53D}"/>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732977A1-5FC1-4B84-8175-DB25F7F68FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1120,15 +1198,125 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3650165" y="2454776"/>
-          <a:ext cx="7897091" cy="4639541"/>
+          <a:off x="3640009" y="2497008"/>
+          <a:ext cx="7897091" cy="4635212"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>21574</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>21574</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78787EE8-FE01-44D0-85A0-09DE27621160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12525301" y="6855328"/>
+          <a:ext cx="7897091" cy="4635211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>1855</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>126545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>1855</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>155121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BF2E04-42D5-40B7-A92D-162688EB4C6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28957855" y="22189909"/>
+          <a:ext cx="7897091" cy="4635212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1894,7 +2082,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ユーザ情報変更ボタン</a:t>
+            <a:t>ユーザ情報更新ボタン</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
@@ -2663,7 +2851,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ユーザ情報変更ボタン</a:t>
+            <a:t>ユーザ情報更新ボタン</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
@@ -3813,171 +4001,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>254540</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>145002</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>254540</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>173577</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="図 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52EE1AD-BD34-4C3F-A140-43BC54D80C81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23590790" y="29196252"/>
-          <a:ext cx="8001000" cy="4552951"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>162560</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>155863</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>213015</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>155863</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A8DC1D8-8E56-4748-BE0A-FFE97099AAA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17931015" y="22219227"/>
-          <a:ext cx="7947545" cy="4606636"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>649988</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>111825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>649988</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6143CA-7A7E-4C9B-A0C5-092F5EED1230}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="29320238" y="21781200"/>
-          <a:ext cx="8001000" cy="4552950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7555,10 +7578,10 @@
         <v>58</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7573,7 +7596,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -7727,8 +7750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647C4397-7289-41CA-9955-69C50B398DFD}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12:S12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7968,7 +7991,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>9</v>
@@ -8019,7 +8042,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>59</v>
@@ -8044,7 +8067,7 @@
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
@@ -8064,7 +8087,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>60</v>
@@ -8089,7 +8112,7 @@
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
@@ -8109,7 +8132,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>53</v>
@@ -8134,13 +8157,13 @@
         <v>21</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
@@ -8160,7 +8183,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>31</v>
@@ -8185,13 +8208,13 @@
         <v>22</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
@@ -8259,8 +8282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771930D8-6339-4FE5-857F-6AD157A4091C}">
   <dimension ref="D7:AL124"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8289,7 +8312,7 @@
     <row r="10" spans="6:22" x14ac:dyDescent="0.4">
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="13"/>
       <c r="U10" s="13"/>
@@ -8325,7 +8348,7 @@
     <row r="28" spans="5:22" x14ac:dyDescent="0.4">
       <c r="T28" s="13"/>
       <c r="U28" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V28" s="13"/>
     </row>
@@ -8378,7 +8401,7 @@
     <row r="58" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F58" s="13"/>
       <c r="G58" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H58" s="13"/>
     </row>
@@ -8433,12 +8456,12 @@
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H91" s="13"/>
       <c r="AB91" s="13"/>
       <c r="AC91" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AD91" s="13"/>
     </row>
@@ -8481,7 +8504,7 @@
     <row r="119" spans="7:38" x14ac:dyDescent="0.4">
       <c r="G119" s="13"/>
       <c r="H119" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I119" s="13"/>
     </row>
@@ -8493,7 +8516,7 @@
     <row r="122" spans="7:38" x14ac:dyDescent="0.4">
       <c r="AJ122" s="13"/>
       <c r="AK122" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL122" s="13"/>
     </row>

--- a/document/【ファイルサーバ課題】画面一覧・画面遷移図.xlsx
+++ b/document/【ファイルサーバ課題】画面一覧・画面遷移図.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70466460-E8CC-4F4D-A0F8-AA01B51239B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8191CBEF-2C1E-499E-AE23-5425AD78F291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{33980DD7-076D-435C-8F92-9B20D7ED1BBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{33980DD7-076D-435C-8F92-9B20D7ED1BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -571,12 +570,31 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ユーザ情報更新→ファイルサーバ画面への「戻る場合」の記述削除</t>
+    <rPh sb="3" eb="7">
+      <t>ジョウホウコウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>キジュツサクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,7 +777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,8 +823,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -818,10 +836,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -847,8 +865,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,7 +917,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1020,7 +1041,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1075,7 +1096,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1130,7 +1151,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1185,7 +1206,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1240,7 +1261,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1295,7 +1316,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2025,8 +2046,8 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>153828</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2041,8 +2062,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21866680" y="20625027"/>
-          <a:ext cx="2290148" cy="687160"/>
+          <a:off x="21431251" y="19805877"/>
+          <a:ext cx="2235720" cy="768123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2499,13 +2520,13 @@
       <xdr:col>36</xdr:col>
       <xdr:colOff>86591</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>357826</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2520,8 +2541,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23777864" y="27778364"/>
-          <a:ext cx="2245507" cy="1091045"/>
+          <a:off x="23599734" y="26198945"/>
+          <a:ext cx="2230663" cy="1287483"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2561,17 +2582,16 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>戻る場合</a:t>
+            <a:t>更新成功した場合</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>更新成功した場合</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>or</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2592,7 +2612,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2603,8 +2623,36 @@
             </a:rPr>
             <a:t>ファイルサーバボタン</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2794,8 +2842,8 @@
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>249079</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2810,8 +2858,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26629181" y="24411215"/>
-          <a:ext cx="2290148" cy="687160"/>
+          <a:off x="26098502" y="23439665"/>
+          <a:ext cx="2235720" cy="868135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3271,8 +3319,8 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>130016</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3287,8 +3335,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13841868" y="17600839"/>
-          <a:ext cx="2290148" cy="687160"/>
+          <a:off x="13460868" y="16905514"/>
+          <a:ext cx="2213948" cy="849086"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3348,13 +3396,13 @@
       <xdr:col>43</xdr:col>
       <xdr:colOff>309873</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>232867</xdr:rowOff>
+      <xdr:rowOff>225247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>599771</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>205652</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3369,8 +3417,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28980123" y="27379117"/>
-          <a:ext cx="2290148" cy="687160"/>
+          <a:off x="28395016" y="26285647"/>
+          <a:ext cx="2249326" cy="874210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7495,22 +7543,22 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="57.75" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.19921875" customWidth="1"/>
+    <col min="5" max="5" width="57.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -7527,7 +7575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -7545,7 +7593,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A20" si="0">ROW(A2)</f>
         <v>2</v>
@@ -7563,7 +7611,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="108">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7581,7 +7629,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="72">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7599,17 +7647,25 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="15">
+        <v>44179</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7619,7 +7675,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7629,7 +7685,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7639,7 +7695,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7649,7 +7705,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <f>ROW(A10)</f>
         <v>10</v>
@@ -7659,7 +7715,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7669,7 +7725,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7679,7 +7735,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7689,7 +7745,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7699,7 +7755,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7709,7 +7765,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7719,7 +7775,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7729,7 +7785,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7754,12 +7810,12 @@
       <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="18"/>
   <cols>
     <col min="11" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23">
       <c r="A1" s="21" t="s">
         <v>29</v>
       </c>
@@ -7789,14 +7845,14 @@
       <c r="S1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -7824,14 +7880,14 @@
       <c r="S2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2" s="30">
         <v>44175</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23">
       <c r="A3" s="21" t="s">
         <v>30</v>
       </c>
@@ -7861,14 +7917,14 @@
       <c r="S3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -7896,14 +7952,14 @@
       <c r="S4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="30">
         <v>44176</v>
       </c>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
     </row>
-    <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" ht="18.75" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
@@ -7946,7 +8002,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
     </row>
-    <row r="7" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" ht="18.75" customHeight="1">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -7977,29 +8033,29 @@
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="16" t="s">
@@ -8009,36 +8065,36 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15" t="s">
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A9" s="9">
         <v>2</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -8047,7 +8103,7 @@
       <c r="F9" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="17"/>
       <c r="I9" s="16" t="s">
         <v>33</v>
@@ -8060,30 +8116,30 @@
         <v>61</v>
       </c>
       <c r="O9" s="17"/>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15" t="s">
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -8092,7 +8148,7 @@
       <c r="F10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="17"/>
       <c r="I10" s="16" t="s">
         <v>33</v>
@@ -8105,42 +8161,42 @@
         <v>36</v>
       </c>
       <c r="O10" s="17"/>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15" t="s">
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="16" t="s">
@@ -8150,48 +8206,48 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="15" t="s">
+      <c r="P11" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15" t="s">
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A12" s="9">
         <v>5</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="16" t="s">
@@ -8201,36 +8257,51 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="O12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="P12" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15" t="s">
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="T6:W7"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P6:S7"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A3:O4"/>
     <mergeCell ref="E6:E7"/>
@@ -8247,30 +8318,15 @@
     <mergeCell ref="N6:O7"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="T6:W7"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P6:S7"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8282,34 +8338,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771930D8-6339-4FE5-857F-6AD157A4091C}">
   <dimension ref="D7:AL124"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AO20" sqref="AO20"/>
+    <sheetView topLeftCell="Y64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="8.625" style="14"/>
+    <col min="1" max="16384" width="8.59765625" style="14"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="6:22">
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
     </row>
-    <row r="8" spans="6:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="6:22">
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
     </row>
-    <row r="9" spans="6:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="6:22">
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
     </row>
-    <row r="10" spans="6:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="6:22">
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
         <v>70</v>
@@ -8318,120 +8374,88 @@
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
     </row>
-    <row r="11" spans="6:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="6:22">
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="6:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="6:22">
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="17" spans="5:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:22">
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="5:22" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:22">
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="5:22" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:22">
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="27" spans="5:22" x14ac:dyDescent="0.4">
+    <row r="27" spans="5:22">
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
     </row>
-    <row r="28" spans="5:22" x14ac:dyDescent="0.4">
+    <row r="28" spans="5:22">
       <c r="T28" s="13"/>
       <c r="U28" s="13" t="s">
         <v>69</v>
       </c>
       <c r="V28" s="13"/>
     </row>
-    <row r="29" spans="5:22" x14ac:dyDescent="0.4">
+    <row r="29" spans="5:22">
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
     </row>
-    <row r="30" spans="5:22" x14ac:dyDescent="0.4">
+    <row r="30" spans="5:22">
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
     </row>
-    <row r="31" spans="5:22" x14ac:dyDescent="0.4">
+    <row r="31" spans="5:22">
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
     </row>
-    <row r="33" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="34" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="35" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="36" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="37" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="38" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="39" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="40" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="41" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="42" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="43" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="44" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="45" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="46" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="47" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="48" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="6:8">
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="6:8">
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="6:8">
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="6:8">
       <c r="F58" s="13"/>
       <c r="G58" s="13" t="s">
         <v>66</v>
       </c>
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="6:8">
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="6:8">
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="65" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="66" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="67" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="68" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="69" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="70" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="71" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="72" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="73" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="74" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="75" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="76" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="77" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="78" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="79" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="80" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="89" spans="4:30" x14ac:dyDescent="0.4">
+    <row r="89" spans="4:30">
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
@@ -8441,7 +8465,7 @@
       <c r="AC89" s="13"/>
       <c r="AD89" s="13"/>
     </row>
-    <row r="90" spans="4:30" x14ac:dyDescent="0.4">
+    <row r="90" spans="4:30">
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
@@ -8451,7 +8475,7 @@
       <c r="AC90" s="13"/>
       <c r="AD90" s="13"/>
     </row>
-    <row r="91" spans="4:30" x14ac:dyDescent="0.4">
+    <row r="91" spans="4:30">
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
@@ -8465,67 +8489,51 @@
       </c>
       <c r="AD91" s="13"/>
     </row>
-    <row r="92" spans="4:30" x14ac:dyDescent="0.4">
+    <row r="92" spans="4:30">
       <c r="AB92" s="13"/>
       <c r="AC92" s="13"/>
       <c r="AD92" s="13"/>
     </row>
-    <row r="93" spans="4:30" x14ac:dyDescent="0.4">
+    <row r="93" spans="4:30">
       <c r="AB93" s="13"/>
       <c r="AC93" s="13"/>
       <c r="AD93" s="13"/>
     </row>
-    <row r="94" spans="4:30" x14ac:dyDescent="0.4">
+    <row r="94" spans="4:30">
       <c r="AB94" s="13"/>
       <c r="AC94" s="13"/>
       <c r="AD94" s="13"/>
     </row>
-    <row r="97" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="98" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="99" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="100" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="101" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="102" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="103" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="104" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="105" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="106" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="107" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="108" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="109" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="110" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="111" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="112" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="118" spans="7:38" x14ac:dyDescent="0.4">
+    <row r="118" spans="7:38">
       <c r="G118" s="13"/>
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
     </row>
-    <row r="119" spans="7:38" x14ac:dyDescent="0.4">
+    <row r="119" spans="7:38">
       <c r="G119" s="13"/>
       <c r="H119" s="13" t="s">
         <v>65</v>
       </c>
       <c r="I119" s="13"/>
     </row>
-    <row r="120" spans="7:38" x14ac:dyDescent="0.4">
+    <row r="120" spans="7:38">
       <c r="G120" s="13"/>
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
     </row>
-    <row r="122" spans="7:38" x14ac:dyDescent="0.4">
+    <row r="122" spans="7:38">
       <c r="AJ122" s="13"/>
       <c r="AK122" s="13" t="s">
         <v>66</v>
       </c>
       <c r="AL122" s="13"/>
     </row>
-    <row r="123" spans="7:38" x14ac:dyDescent="0.4">
+    <row r="123" spans="7:38">
       <c r="AJ123" s="13"/>
       <c r="AK123" s="13"/>
       <c r="AL123" s="13"/>
     </row>
-    <row r="124" spans="7:38" x14ac:dyDescent="0.4">
+    <row r="124" spans="7:38">
       <c r="AJ124" s="13"/>
       <c r="AK124" s="13"/>
       <c r="AL124" s="13"/>
@@ -8546,37 +8554,37 @@
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="7" spans="21:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="21:22">
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="21:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="21:22">
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="21:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="21:22">
       <c r="U9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="21:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="21:22">
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:6">
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:6">
       <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:6">
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>

--- a/document/【ファイルサーバ課題】画面一覧・画面遷移図.xlsx
+++ b/document/【ファイルサーバ課題】画面一覧・画面遷移図.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8191CBEF-2C1E-499E-AE23-5425AD78F291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70169E12-0DC7-49F0-8A25-DC75B28304AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{33980DD7-076D-435C-8F92-9B20D7ED1BBE}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{33980DD7-076D-435C-8F92-9B20D7ED1BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -589,12 +589,38 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>石川</t>
+    <rPh sb="0" eb="2">
+      <t>イシカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ管理画面の更新者/閲覧者列をラジオボタンからプルダウンに変更</t>
+    <rPh sb="3" eb="7">
+      <t>カンリガメン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コウシンシャ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>エツランシャ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,7 +803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,6 +852,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -836,10 +871,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -865,11 +900,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4127,6 +4159,393 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>155509</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>100320</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>135310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2258F61-1832-4672-B804-BA2EF687C458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="6105" t="-1276" b="1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33465795" y="22844448"/>
+          <a:ext cx="597954" cy="617392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>144625</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>77756</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>124408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{909719E9-CF2B-4E84-B3FE-4FFFF8542F09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="4885" t="65559" r="3055" b="2553"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33454911" y="23489816"/>
+          <a:ext cx="586274" cy="194388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>144625</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>202163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>77756</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{527A257F-EA0E-473F-BBE2-8ABBCB526DB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="4885" t="65559" r="3055" b="2553"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33454911" y="23761959"/>
+          <a:ext cx="586274" cy="194388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>144625</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>31103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>77756</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>225491</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B17FF17-86F9-46C8-88CA-77FF9DEB42C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="4885" t="65559" r="3055" b="2553"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33454911" y="24057430"/>
+          <a:ext cx="586274" cy="194388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>144625</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>77758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>77756</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>38880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="図 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10606770-4BDF-4DCB-8FD4-A347D57A6E8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="4885" t="65559" r="3055" b="2553"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33454911" y="24337349"/>
+          <a:ext cx="586274" cy="194388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>144625</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>132186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>77756</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>93308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="図 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0294F46-50FB-44A8-93A9-2375950BA29B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="4885" t="65559" r="3055" b="2553"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33454911" y="24625043"/>
+          <a:ext cx="586274" cy="194388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>144625</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>194390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>77756</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>155514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="図 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B6DB53-E00E-4F35-9EB9-5384EE4F292B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="4885" t="65559" r="3055" b="2553"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33454911" y="24920513"/>
+          <a:ext cx="586274" cy="194388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>144625</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>15554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>77756</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>209942</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="図 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF321D79-328B-4B3B-BB4C-9D12A4C7244D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="4885" t="65559" r="3055" b="2553"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33454911" y="25208207"/>
+          <a:ext cx="586274" cy="194388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>144625</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>69982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>77756</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>31105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="図 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9265FD48-DCCD-462F-A321-40B76349E4DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="4885" t="65559" r="3055" b="2553"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33454911" y="25495901"/>
+          <a:ext cx="586274" cy="194388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7543,22 +7962,22 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.19921875" customWidth="1"/>
-    <col min="5" max="5" width="57.69921875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.2109375" customWidth="1"/>
+    <col min="5" max="5" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -7575,7 +7994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A3" s="2">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -7593,7 +8012,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A20" si="0">ROW(A2)</f>
         <v>2</v>
@@ -7611,7 +8030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="108">
+    <row r="5" spans="1:5" ht="110.6" x14ac:dyDescent="0.65">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7629,7 +8048,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72">
+    <row r="6" spans="1:5" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7647,7 +8066,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7665,17 +8084,25 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="17">
+        <v>44181</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7685,7 +8112,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7695,7 +8122,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7705,7 +8132,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A12" s="2">
         <f>ROW(A10)</f>
         <v>10</v>
@@ -7715,7 +8142,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7725,7 +8152,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7735,7 +8162,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7745,7 +8172,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7755,7 +8182,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7765,7 +8192,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7775,7 +8202,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7785,7 +8212,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7798,7 +8225,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7810,209 +8237,209 @@
       <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="11" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="18" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="18" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="30">
+      <c r="T2" s="23">
         <v>44175</v>
       </c>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="18" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="18" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="30">
+      <c r="T4" s="23">
         <v>44176</v>
       </c>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
     </row>
-    <row r="6" spans="1:23" ht="18.75" customHeight="1">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="25" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="18" t="s">
+      <c r="J6" s="29"/>
+      <c r="K6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18" t="s">
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18" t="s">
+      <c r="O6" s="21"/>
+      <c r="P6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18" t="s">
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
     </row>
-    <row r="7" spans="1:23" ht="18.75" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
+    <row r="7" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
       <c r="K7" s="8" t="s">
         <v>12</v>
       </c>
@@ -8022,270 +8449,287 @@
       <c r="M7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="17"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19" t="s">
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1">
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="9">
         <v>2</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="16" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="17"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="19" t="s">
+      <c r="O9" s="20"/>
+      <c r="P9" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19" t="s">
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="16" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="17"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="19" t="s">
+      <c r="O10" s="20"/>
+      <c r="P10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19" t="s">
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="P11" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19" t="s">
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="9">
         <v>5</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="17"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="19" t="s">
+      <c r="P12" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19" t="s">
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A3:O4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="T11:W11"/>
     <mergeCell ref="T12:W12"/>
     <mergeCell ref="P1:S1"/>
@@ -8302,31 +8746,14 @@
     <mergeCell ref="T6:W7"/>
     <mergeCell ref="P8:S8"/>
     <mergeCell ref="P6:S7"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A3:O4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="N6:O7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8338,34 +8765,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771930D8-6339-4FE5-857F-6AD157A4091C}">
   <dimension ref="D7:AL124"/>
   <sheetViews>
-    <sheetView topLeftCell="Y64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BF100" sqref="BF100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="16384" width="8.59765625" style="14"/>
+    <col min="1" max="16384" width="8.5703125" style="14"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:22">
+    <row r="7" spans="6:22" x14ac:dyDescent="0.65">
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
     </row>
-    <row r="8" spans="6:22">
+    <row r="8" spans="6:22" x14ac:dyDescent="0.65">
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
     </row>
-    <row r="9" spans="6:22">
+    <row r="9" spans="6:22" x14ac:dyDescent="0.65">
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
     </row>
-    <row r="10" spans="6:22">
+    <row r="10" spans="6:22" x14ac:dyDescent="0.65">
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
         <v>70</v>
@@ -8374,88 +8801,88 @@
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
     </row>
-    <row r="11" spans="6:22">
+    <row r="11" spans="6:22" x14ac:dyDescent="0.65">
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="6:22">
+    <row r="12" spans="6:22" x14ac:dyDescent="0.65">
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="17" spans="5:22">
+    <row r="17" spans="5:22" x14ac:dyDescent="0.65">
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="5:22">
+    <row r="18" spans="5:22" x14ac:dyDescent="0.65">
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="5:22">
+    <row r="19" spans="5:22" x14ac:dyDescent="0.65">
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="27" spans="5:22">
+    <row r="27" spans="5:22" x14ac:dyDescent="0.65">
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
     </row>
-    <row r="28" spans="5:22">
+    <row r="28" spans="5:22" x14ac:dyDescent="0.65">
       <c r="T28" s="13"/>
       <c r="U28" s="13" t="s">
         <v>69</v>
       </c>
       <c r="V28" s="13"/>
     </row>
-    <row r="29" spans="5:22">
+    <row r="29" spans="5:22" x14ac:dyDescent="0.65">
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
     </row>
-    <row r="30" spans="5:22">
+    <row r="30" spans="5:22" x14ac:dyDescent="0.65">
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
     </row>
-    <row r="31" spans="5:22">
+    <row r="31" spans="5:22" x14ac:dyDescent="0.65">
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
     </row>
-    <row r="55" spans="6:8">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.65">
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="6:8">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.65">
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="6:8">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.65">
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="6:8">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.65">
       <c r="F58" s="13"/>
       <c r="G58" s="13" t="s">
         <v>66</v>
       </c>
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="6:8">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.65">
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="6:8">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.65">
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="89" spans="4:30">
+    <row r="89" spans="4:30" x14ac:dyDescent="0.65">
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
@@ -8465,7 +8892,7 @@
       <c r="AC89" s="13"/>
       <c r="AD89" s="13"/>
     </row>
-    <row r="90" spans="4:30">
+    <row r="90" spans="4:30" x14ac:dyDescent="0.65">
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
@@ -8475,7 +8902,7 @@
       <c r="AC90" s="13"/>
       <c r="AD90" s="13"/>
     </row>
-    <row r="91" spans="4:30">
+    <row r="91" spans="4:30" x14ac:dyDescent="0.65">
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
@@ -8489,51 +8916,51 @@
       </c>
       <c r="AD91" s="13"/>
     </row>
-    <row r="92" spans="4:30">
+    <row r="92" spans="4:30" x14ac:dyDescent="0.65">
       <c r="AB92" s="13"/>
       <c r="AC92" s="13"/>
       <c r="AD92" s="13"/>
     </row>
-    <row r="93" spans="4:30">
+    <row r="93" spans="4:30" x14ac:dyDescent="0.65">
       <c r="AB93" s="13"/>
       <c r="AC93" s="13"/>
       <c r="AD93" s="13"/>
     </row>
-    <row r="94" spans="4:30">
+    <row r="94" spans="4:30" x14ac:dyDescent="0.65">
       <c r="AB94" s="13"/>
       <c r="AC94" s="13"/>
       <c r="AD94" s="13"/>
     </row>
-    <row r="118" spans="7:38">
+    <row r="118" spans="7:38" x14ac:dyDescent="0.65">
       <c r="G118" s="13"/>
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
     </row>
-    <row r="119" spans="7:38">
+    <row r="119" spans="7:38" x14ac:dyDescent="0.65">
       <c r="G119" s="13"/>
       <c r="H119" s="13" t="s">
         <v>65</v>
       </c>
       <c r="I119" s="13"/>
     </row>
-    <row r="120" spans="7:38">
+    <row r="120" spans="7:38" x14ac:dyDescent="0.65">
       <c r="G120" s="13"/>
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
     </row>
-    <row r="122" spans="7:38">
+    <row r="122" spans="7:38" x14ac:dyDescent="0.65">
       <c r="AJ122" s="13"/>
       <c r="AK122" s="13" t="s">
         <v>66</v>
       </c>
       <c r="AL122" s="13"/>
     </row>
-    <row r="123" spans="7:38">
+    <row r="123" spans="7:38" x14ac:dyDescent="0.65">
       <c r="AJ123" s="13"/>
       <c r="AK123" s="13"/>
       <c r="AL123" s="13"/>
     </row>
-    <row r="124" spans="7:38">
+    <row r="124" spans="7:38" x14ac:dyDescent="0.65">
       <c r="AJ124" s="13"/>
       <c r="AK124" s="13"/>
       <c r="AL124" s="13"/>
@@ -8554,37 +8981,37 @@
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
-    <row r="7" spans="21:22">
+    <row r="7" spans="21:22" x14ac:dyDescent="0.65">
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="21:22">
+    <row r="8" spans="21:22" x14ac:dyDescent="0.65">
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="21:22">
+    <row r="9" spans="21:22" x14ac:dyDescent="0.65">
       <c r="U9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="21:22">
+    <row r="10" spans="21:22" x14ac:dyDescent="0.65">
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="17" spans="5:6">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.65">
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="5:6">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.65">
       <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="5:6">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.65">
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>

--- a/document/【ファイルサーバ課題】画面一覧・画面遷移図.xlsx
+++ b/document/【ファイルサーバ課題】画面一覧・画面遷移図.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70169E12-0DC7-49F0-8A25-DC75B28304AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{70169E12-0DC7-49F0-8A25-DC75B28304AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7C53A45E-C69D-46CA-9254-BA4421F5231C}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{33980DD7-076D-435C-8F92-9B20D7ED1BBE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="81">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -611,6 +611,22 @@
       <t>レツ</t>
     </rPh>
     <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録完了後の遷移先をログイン画面に変更</t>
+    <rPh sb="3" eb="8">
+      <t>トウロクカンリョウゴ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>センイサキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -803,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -859,7 +875,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -871,10 +890,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -900,8 +919,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2418,133 +2440,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>424104</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>638417</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="直線矢印コネクタ 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D2ECC7-0EC6-4F41-AAFA-B6A07D1EDB74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="9532386" y="7000874"/>
-          <a:ext cx="0" cy="6215063"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>97851</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>79205</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>237325</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>192100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="テキスト ボックス 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77C6789D-07E5-49CE-B7C1-86B7D6BA77FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8765601" y="9842330"/>
-          <a:ext cx="2139724" cy="589145"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>登録完了の場合</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3031,15 +2926,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>543170</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:colOff>458758</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>140476</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>58152</xdr:rowOff>
+      <xdr:rowOff>58154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3055,12 +2950,14 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="13165544" y="3081970"/>
-          <a:ext cx="2356058" cy="4931306"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:xfrm rot="10800000">
+          <a:off x="11562187" y="3289042"/>
+          <a:ext cx="4906860" cy="3300541"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -232"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -4546,6 +4443,137 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447872</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>139959</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>62204</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線矢印コネクタ 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8FD4C0E-27F3-46A8-BC78-F19EE479FE2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="11551301" y="4358953"/>
+          <a:ext cx="2304658" cy="2234680"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3779"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>245586</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>125859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>385060</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>5488</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77C6789D-07E5-49CE-B7C1-86B7D6BA77FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12655300" y="5490960"/>
+          <a:ext cx="2098903" cy="579427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>登録完了の場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8107,10 +8135,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="19">
+        <v>44193</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A10" s="2">
@@ -8234,7 +8270,7 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:H10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -8243,203 +8279,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="21" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="21" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="23">
+      <c r="T2" s="34">
         <v>44175</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="21" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="21" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="34">
         <v>44176</v>
       </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
     </row>
     <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="26" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="28" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="21" t="s">
+      <c r="J6" s="30"/>
+      <c r="K6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21" t="s">
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21" t="s">
+      <c r="O6" s="22"/>
+      <c r="P6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
     </row>
     <row r="7" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="8" t="s">
         <v>12</v>
       </c>
@@ -8449,271 +8485,286 @@
       <c r="M7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="23" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="20"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18" t="s">
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="9">
         <v>2</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="19" t="s">
+      <c r="G9" s="24"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="20"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="18" t="s">
+      <c r="O9" s="21"/>
+      <c r="P9" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18" t="s">
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="19" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="20"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="20"/>
-      <c r="P10" s="18" t="s">
+      <c r="O10" s="21"/>
+      <c r="P10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18" t="s">
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="23" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="20"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="18" t="s">
+      <c r="N11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18" t="s">
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="9">
         <v>5</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="23" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="20"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="18" t="s">
+      <c r="P12" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18" t="s">
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="T6:W7"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P6:S7"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A3:O4"/>
     <mergeCell ref="E6:E7"/>
@@ -8730,30 +8781,15 @@
     <mergeCell ref="N6:O7"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="T6:W7"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P6:S7"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8765,8 +8801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771930D8-6339-4FE5-857F-6AD157A4091C}">
   <dimension ref="D7:AL124"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BF100" sqref="BF100"/>
+    <sheetView topLeftCell="D13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>

--- a/document/【ファイルサーバ課題】画面一覧・画面遷移図.xlsx
+++ b/document/【ファイルサーバ課題】画面一覧・画面遷移図.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{70169E12-0DC7-49F0-8A25-DC75B28304AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7C53A45E-C69D-46CA-9254-BA4421F5231C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52857974-AD37-41B4-88DA-536F33E3B225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{33980DD7-076D-435C-8F92-9B20D7ED1BBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{33980DD7-076D-435C-8F92-9B20D7ED1BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -628,6 +628,20 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・placeholderの表示
+・ファイルの個別ダウンロードボタン表示</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -819,7 +833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,6 +894,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -890,10 +913,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,11 +942,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,61 +964,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>101509</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>18381</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>101510</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>60811</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="図 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C394B4-B2F6-481A-A86D-D7431E43DAC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3391964" y="14080745"/>
-          <a:ext cx="7897091" cy="4649066"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
@@ -1068,336 +1033,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>263237</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>128155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>263238</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>156730</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619583C3-3FDF-4600-AFB5-93CB6625C9E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18031692" y="22191519"/>
-          <a:ext cx="7897091" cy="4635211"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>190821</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>13928</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>190821</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>42503</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AC177F-9001-4150-88C5-2926C67D335C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23050821" y="29895214"/>
-          <a:ext cx="7837714" cy="4682218"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9054</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>109499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9055</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>138075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637AFFC2-CB2B-468E-AA35-ABE1A5985FC5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3299509" y="22172863"/>
-          <a:ext cx="7897091" cy="4635212"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>349554</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>72463</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>349555</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>101038</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732977A1-5FC1-4B84-8175-DB25F7F68FB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3640009" y="2497008"/>
-          <a:ext cx="7897091" cy="4635212"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>21574</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>21574</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>95175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78787EE8-FE01-44D0-85A0-09DE27621160}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12525301" y="6855328"/>
-          <a:ext cx="7897091" cy="4635211"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>1855</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>126545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>1855</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>155121</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BF2E04-42D5-40B7-A92D-162688EB4C6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28957855" y="22189909"/>
-          <a:ext cx="7897091" cy="4635212"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1475,9 +1110,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>468829</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1492,8 +1127,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6329796" y="7138554"/>
-          <a:ext cx="17319" cy="7012874"/>
+          <a:off x="6452260" y="6941250"/>
+          <a:ext cx="24740" cy="7012875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4058,393 +3693,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>155509</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>100320</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>135310</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2258F61-1832-4672-B804-BA2EF687C458}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect l="6105" t="-1276" b="1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="33465795" y="22844448"/>
-          <a:ext cx="597954" cy="617392"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>144625</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>77756</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>124408</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{909719E9-CF2B-4E84-B3FE-4FFFF8542F09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect l="4885" t="65559" r="3055" b="2553"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="33454911" y="23489816"/>
-          <a:ext cx="586274" cy="194388"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>144625</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>202163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>77756</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{527A257F-EA0E-473F-BBE2-8ABBCB526DB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect l="4885" t="65559" r="3055" b="2553"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="33454911" y="23761959"/>
-          <a:ext cx="586274" cy="194388"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>144625</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>31103</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>77756</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>225491</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B17FF17-86F9-46C8-88CA-77FF9DEB42C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect l="4885" t="65559" r="3055" b="2553"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="33454911" y="24057430"/>
-          <a:ext cx="586274" cy="194388"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>144625</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>77758</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>77756</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="図 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10606770-4BDF-4DCB-8FD4-A347D57A6E8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect l="4885" t="65559" r="3055" b="2553"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="33454911" y="24337349"/>
-          <a:ext cx="586274" cy="194388"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>144625</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>132186</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>77756</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>93308</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="図 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0294F46-50FB-44A8-93A9-2375950BA29B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect l="4885" t="65559" r="3055" b="2553"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="33454911" y="24625043"/>
-          <a:ext cx="586274" cy="194388"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>144625</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>194390</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>77756</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>155514</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="図 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B6DB53-E00E-4F35-9EB9-5384EE4F292B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect l="4885" t="65559" r="3055" b="2553"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="33454911" y="24920513"/>
-          <a:ext cx="586274" cy="194388"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>144625</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>15554</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>77756</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>209942</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="図 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF321D79-328B-4B3B-BB4C-9D12A4C7244D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect l="4885" t="65559" r="3055" b="2553"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="33454911" y="25208207"/>
-          <a:ext cx="586274" cy="194388"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>144625</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>69982</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>77756</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>31105</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="図 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9265FD48-DCCD-462F-A321-40B76349E4DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect l="4885" t="65559" r="3055" b="2553"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="33454911" y="25495901"/>
-          <a:ext cx="586274" cy="194388"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
@@ -4574,6 +3822,391 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>285748</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>114733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>280430</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>189673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13957D68-26F2-4103-B9DC-D958BC8774CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18287998" y="21784108"/>
+          <a:ext cx="7995682" cy="4361190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>61245</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>195461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>55926</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>27947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423B6D0D-E0E3-4A31-8248-56252502BFBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3394995" y="14006711"/>
+          <a:ext cx="7995681" cy="4356861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7754</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>154960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2437</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>229901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F93997-18CB-4EBB-BCD4-08AF3A120DFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3298209" y="22218324"/>
+          <a:ext cx="7891773" cy="4439122"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>328771</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>86319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323454</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DB8458-3C07-434A-9BE1-4E400D333DF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619226" y="2510864"/>
+          <a:ext cx="7891773" cy="4439122"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63135</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>57817</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>155395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827D444F-D09B-4CAD-B4B1-A4C377039865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12566862" y="6869182"/>
+          <a:ext cx="7891773" cy="4439122"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>986</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>182828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>653759</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>19643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00B9C99-F0EB-4115-8EAB-207ADE92BE23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28956986" y="22246192"/>
+          <a:ext cx="7891773" cy="4443451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>137445</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>43061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>132126</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>104147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="図 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3617FB8C-923F-4275-96D8-9CEB59267BEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22806945" y="27932261"/>
+          <a:ext cx="7767081" cy="4175886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7990,22 +7623,22 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.2109375" customWidth="1"/>
-    <col min="5" max="5" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="64.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -8022,7 +7655,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -8040,7 +7673,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A20" si="0">ROW(A2)</f>
         <v>2</v>
@@ -8058,7 +7691,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="110.6" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:5" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8076,7 +7709,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="73.75" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8094,7 +7727,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8112,7 +7745,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8130,7 +7763,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8148,17 +7781,25 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="21">
+        <v>44194</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8168,7 +7809,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <f>ROW(A10)</f>
         <v>10</v>
@@ -8178,7 +7819,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8188,7 +7829,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8198,7 +7839,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8208,7 +7849,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8218,7 +7859,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8228,7 +7869,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8238,7 +7879,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8248,7 +7889,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8273,209 +7914,209 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="11" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="22" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="22" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="34">
+      <c r="T2" s="27">
         <v>44175</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="22" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="22" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="34">
+      <c r="T4" s="27">
         <v>44176</v>
       </c>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
     </row>
-    <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="27" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="29" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="22" t="s">
+      <c r="J6" s="33"/>
+      <c r="K6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22" t="s">
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22" t="s">
+      <c r="O6" s="25"/>
+      <c r="P6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22" t="s">
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
     </row>
-    <row r="7" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
+    <row r="7" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="8" t="s">
         <v>12</v>
       </c>
@@ -8485,270 +8126,287 @@
       <c r="M7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="23" t="s">
+      <c r="P8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23" t="s">
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="20" t="s">
+      <c r="G9" s="36"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="21"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="23" t="s">
+      <c r="O9" s="24"/>
+      <c r="P9" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23" t="s">
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="20" t="s">
+      <c r="G10" s="36"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="21"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="23" t="s">
+      <c r="O10" s="24"/>
+      <c r="P10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23" t="s">
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="21"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="P11" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23" t="s">
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23" t="s">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A3:O4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="T11:W11"/>
     <mergeCell ref="T12:W12"/>
     <mergeCell ref="P1:S1"/>
@@ -8765,31 +8423,14 @@
     <mergeCell ref="T6:W7"/>
     <mergeCell ref="P8:S8"/>
     <mergeCell ref="P6:S7"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A3:O4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="N6:O7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8801,34 +8442,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771930D8-6339-4FE5-857F-6AD157A4091C}">
   <dimension ref="D7:AL124"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AX41" sqref="AX41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="8.5703125" style="14"/>
+    <col min="1" max="16384" width="8.625" style="14"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:22" x14ac:dyDescent="0.65">
+    <row r="7" spans="6:22" x14ac:dyDescent="0.4">
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
     </row>
-    <row r="8" spans="6:22" x14ac:dyDescent="0.65">
+    <row r="8" spans="6:22" x14ac:dyDescent="0.4">
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
     </row>
-    <row r="9" spans="6:22" x14ac:dyDescent="0.65">
+    <row r="9" spans="6:22" x14ac:dyDescent="0.4">
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
     </row>
-    <row r="10" spans="6:22" x14ac:dyDescent="0.65">
+    <row r="10" spans="6:22" x14ac:dyDescent="0.4">
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
         <v>70</v>
@@ -8837,88 +8478,88 @@
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
     </row>
-    <row r="11" spans="6:22" x14ac:dyDescent="0.65">
+    <row r="11" spans="6:22" x14ac:dyDescent="0.4">
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="6:22" x14ac:dyDescent="0.65">
+    <row r="12" spans="6:22" x14ac:dyDescent="0.4">
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="17" spans="5:22" x14ac:dyDescent="0.65">
+    <row r="17" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="5:22" x14ac:dyDescent="0.65">
+    <row r="18" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="5:22" x14ac:dyDescent="0.65">
+    <row r="19" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="27" spans="5:22" x14ac:dyDescent="0.65">
+    <row r="27" spans="5:22" x14ac:dyDescent="0.4">
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
     </row>
-    <row r="28" spans="5:22" x14ac:dyDescent="0.65">
+    <row r="28" spans="5:22" x14ac:dyDescent="0.4">
       <c r="T28" s="13"/>
       <c r="U28" s="13" t="s">
         <v>69</v>
       </c>
       <c r="V28" s="13"/>
     </row>
-    <row r="29" spans="5:22" x14ac:dyDescent="0.65">
+    <row r="29" spans="5:22" x14ac:dyDescent="0.4">
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
     </row>
-    <row r="30" spans="5:22" x14ac:dyDescent="0.65">
+    <row r="30" spans="5:22" x14ac:dyDescent="0.4">
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
     </row>
-    <row r="31" spans="5:22" x14ac:dyDescent="0.65">
+    <row r="31" spans="5:22" x14ac:dyDescent="0.4">
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.65">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.65">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.65">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.65">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F58" s="13"/>
       <c r="G58" s="13" t="s">
         <v>66</v>
       </c>
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.65">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.65">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="89" spans="4:30" x14ac:dyDescent="0.65">
+    <row r="89" spans="4:30" x14ac:dyDescent="0.4">
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
@@ -8928,7 +8569,7 @@
       <c r="AC89" s="13"/>
       <c r="AD89" s="13"/>
     </row>
-    <row r="90" spans="4:30" x14ac:dyDescent="0.65">
+    <row r="90" spans="4:30" x14ac:dyDescent="0.4">
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
@@ -8938,7 +8579,7 @@
       <c r="AC90" s="13"/>
       <c r="AD90" s="13"/>
     </row>
-    <row r="91" spans="4:30" x14ac:dyDescent="0.65">
+    <row r="91" spans="4:30" x14ac:dyDescent="0.4">
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
@@ -8952,51 +8593,51 @@
       </c>
       <c r="AD91" s="13"/>
     </row>
-    <row r="92" spans="4:30" x14ac:dyDescent="0.65">
+    <row r="92" spans="4:30" x14ac:dyDescent="0.4">
       <c r="AB92" s="13"/>
       <c r="AC92" s="13"/>
       <c r="AD92" s="13"/>
     </row>
-    <row r="93" spans="4:30" x14ac:dyDescent="0.65">
+    <row r="93" spans="4:30" x14ac:dyDescent="0.4">
       <c r="AB93" s="13"/>
       <c r="AC93" s="13"/>
       <c r="AD93" s="13"/>
     </row>
-    <row r="94" spans="4:30" x14ac:dyDescent="0.65">
+    <row r="94" spans="4:30" x14ac:dyDescent="0.4">
       <c r="AB94" s="13"/>
       <c r="AC94" s="13"/>
       <c r="AD94" s="13"/>
     </row>
-    <row r="118" spans="7:38" x14ac:dyDescent="0.65">
+    <row r="118" spans="7:38" x14ac:dyDescent="0.4">
       <c r="G118" s="13"/>
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
     </row>
-    <row r="119" spans="7:38" x14ac:dyDescent="0.65">
+    <row r="119" spans="7:38" x14ac:dyDescent="0.4">
       <c r="G119" s="13"/>
       <c r="H119" s="13" t="s">
         <v>65</v>
       </c>
       <c r="I119" s="13"/>
     </row>
-    <row r="120" spans="7:38" x14ac:dyDescent="0.65">
+    <row r="120" spans="7:38" x14ac:dyDescent="0.4">
       <c r="G120" s="13"/>
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
     </row>
-    <row r="122" spans="7:38" x14ac:dyDescent="0.65">
+    <row r="122" spans="7:38" x14ac:dyDescent="0.4">
       <c r="AJ122" s="13"/>
       <c r="AK122" s="13" t="s">
         <v>66</v>
       </c>
       <c r="AL122" s="13"/>
     </row>
-    <row r="123" spans="7:38" x14ac:dyDescent="0.65">
+    <row r="123" spans="7:38" x14ac:dyDescent="0.4">
       <c r="AJ123" s="13"/>
       <c r="AK123" s="13"/>
       <c r="AL123" s="13"/>
     </row>
-    <row r="124" spans="7:38" x14ac:dyDescent="0.65">
+    <row r="124" spans="7:38" x14ac:dyDescent="0.4">
       <c r="AJ124" s="13"/>
       <c r="AK124" s="13"/>
       <c r="AL124" s="13"/>
@@ -9017,37 +8658,37 @@
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="7" spans="21:22" x14ac:dyDescent="0.65">
+    <row r="7" spans="21:22" x14ac:dyDescent="0.4">
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="21:22" x14ac:dyDescent="0.65">
+    <row r="8" spans="21:22" x14ac:dyDescent="0.4">
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="21:22" x14ac:dyDescent="0.65">
+    <row r="9" spans="21:22" x14ac:dyDescent="0.4">
       <c r="U9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="21:22" x14ac:dyDescent="0.65">
+    <row r="10" spans="21:22" x14ac:dyDescent="0.4">
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.65">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.65">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.65">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
